--- a/INTLINE/data/223/SIDRA/Volume and nominal revenue indices from sales in retail trade by types of index and activities.xlsx
+++ b/INTLINE/data/223/SIDRA/Volume and nominal revenue indices from sales in retail trade by types of index and activities.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
-    <t>Tabela 3418 - Índices de volume e de receita nominal de vendas no comércio varejista, por tipos de índice e atividades (2014 = 100)</t>
+    <t>Tabela 3418 - Índices de volume e de receita nominal de vendas no comércio varejista, por tipos de índice e atividades (2014 = 100) - série encerrada em janeiro de 2022</t>
   </si>
   <si>
     <t>Variável - Índice de volume de vendas no comércio varejista (Número-índice)</t>
